--- a/results/jdk_2_resume_score.xlsx
+++ b/results/jdk_2_resume_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.208763672859444</v>
+        <v>0.9208829719216982</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.604381836429722</v>
+        <v>4.604414859608491</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -516,45 +516,111 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.604381836429722</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CloudPhysician's Vital Extraction Challenge</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FaceNet Implementation</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.824690925393501</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cloudphysician's Vital Extraction Challenge</t>
+          <t>SHAMIYANA APP</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.990765885731988</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+          <t>RAPID</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.833925039661513</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SMART SENSING MIDDLEWARE</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.665968450062644</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cloudphysician's Vital Extraction Challenge</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7.981531771463977</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6.477327538307626</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Website for the Literature Society of the college</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Post-processing of Large Language Models</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>4.205014490478977</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/jdk_2_resume_score.xlsx
+++ b/results/jdk_2_resume_score.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9208829719216982</v>
+        <v>2.687064829607016</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.604414859608491</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.521007298651291</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.7680720467421716</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.146244802641622</v>
       </c>
     </row>
     <row r="3">
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.665968450062644</v>
+        <v>4.87629019523887</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.981531771463977</v>
+        <v>7.605036493256457</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.477327538307626</v>
+        <v>6.387017402085046</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.602928147569862</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4.205014490478977</v>
+        <v>3.910178738044117</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>

--- a/results/jdk_2_resume_score.xlsx
+++ b/results/jdk_2_resume_score.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.687064829607016</v>
+        <v>4.511983941394703</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,23 +508,23 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>7.999999999999998</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Literature Society IITJ Website</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>4.999999999999999</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Literature Society IITJ Website</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2.999999999999999</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>CloudPhysician's Vital Extraction Challenge</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.521007298651291</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.7680720467421716</v>
+        <v>2.688252163597601</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.146244802641622</v>
+        <v>2.359683601981216</v>
       </c>
     </row>
     <row r="3">
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.805838572905071</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.223773863882188</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.387903281927955</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.87629019523887</v>
+        <v>5.050287379341913</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.605036493256457</v>
+        <v>6.084029194605166</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.387017402085046</v>
+        <v>3.592697288672839</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.602928147569862</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3.910178738044117</v>
+        <v>5.474135654747734</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>

--- a/results/jdk_2_resume_score.xlsx
+++ b/results/jdk_2_resume_score.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.511983941394703</v>
+        <v>92.59444296598596</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.999999999999998</v>
+        <v>79.99999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.999999999999999</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2.688252163597601</v>
+        <v>53.76504327195201</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.359683601981216</v>
+        <v>70.7905080594365</v>
       </c>
     </row>
     <row r="3">
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.805838572905071</v>
+        <v>81.99122166254544</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.223773863882188</v>
+        <v>64.47547727764375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.387903281927955</v>
+        <v>52.65483938313546</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.050287379341913</v>
+        <v>87.47361021069381</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.084029194605166</v>
+        <v>60.84029194605166</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.592697288672839</v>
+        <v>71.85394577345677</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5.474135654747734</v>
+        <v>54.7492127319783</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
